--- a/TryTestWeb/App_Data/PlantillaConciliacion.xlsx
+++ b/TryTestWeb/App_Data/PlantillaConciliacion.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piensan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis bustamante\source\repos\geogest\ProyectoGeogest\TryTestWeb\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3DDF97-6F25-4D5A-BC82-76111DF2A464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EA1116-71A5-4E1E-846D-6A514C83E72F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Fecha</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>GLOSA</t>
+  </si>
+  <si>
+    <t>Tipo DTE (Numero SII)</t>
   </si>
 </sst>
 </file>
@@ -369,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -380,7 +383,7 @@
     <col min="7" max="7" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -407,6 +410,9 @@
       </c>
       <c r="I1" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
